--- a/biology/Histoire de la zoologie et de la botanique/Élisabeth_Hardouin-Fugier/Élisabeth_Hardouin-Fugier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Élisabeth_Hardouin-Fugier/Élisabeth_Hardouin-Fugier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Hardouin-Fugier</t>
+          <t>Élisabeth_Hardouin-Fugier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élisabeth Hardouin-Fugier, née le 5 novembre 1931, est une historienne de l'art française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Hardouin-Fugier</t>
+          <t>Élisabeth_Hardouin-Fugier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la fille de l'historien André Fugier.
 Professeure certifiée de dessin (1955-1970).
 Études d’histoire de l’art, licence, maîtrise, thèse de doctorat (peinture mystique lyonnaise, 1978).
 Assistante (Aix-en-Provence, 1970), puis professeur à l’université Jean-Moulin, Lyon (1984).
-Professeure honoraire d'histoire de l'art à l'université Jean-Moulin de Lyon, elle est l'autrice d'une trentaine d'ouvrages, dont plusieurs livres portant sur les rapports entre l'homme et l'animal. Elle étudie notamment l'entrée de l'animal dans le droit, et plus particulièrement le droit allemand[1]. Elle a publié plusieurs ouvrages consacrés à la corrida et à son histoire. Elle a également publié, avec Éric Baratay, un ouvrage sur les jardins zoologiques.
+Professeure honoraire d'histoire de l'art à l'université Jean-Moulin de Lyon, elle est l'autrice d'une trentaine d'ouvrages, dont plusieurs livres portant sur les rapports entre l'homme et l'animal. Elle étudie notamment l'entrée de l'animal dans le droit, et plus particulièrement le droit allemand. Elle a publié plusieurs ouvrages consacrés à la corrida et à son histoire. Elle a également publié, avec Éric Baratay, un ouvrage sur les jardins zoologiques.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Hardouin-Fugier</t>
+          <t>Élisabeth_Hardouin-Fugier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Élisabeth Hardouin-Fugier, La Corrida de A à Z, Saint-Cyr-sur-Loire, Éditions Alan Sutton, 2010, 128 p. (ISBN 978-2-8138-0187-6)
 Bernard Bertod et Élisabeth Hardouin-Fugier, Les ex-voto de Fourvière : Démarches votives lyonnaises, Châtillon-sur-Chalaronne, La Taillanderie, 2008, 126 p. (ISBN 978-2-87629-393-9)
